--- a/tools/Excel2Lua/sheet/Error.xlsx
+++ b/tools/Excel2Lua/sheet/Error.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -149,6 +149,13 @@
   </si>
   <si>
     <t>服务器列表为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到玩家信息</t>
+  </si>
+  <si>
+    <t>有多个玩家信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +697,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +925,9 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C24">
         <f t="shared" si="2"/>
         <v>20110</v>
@@ -929,7 +938,9 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C25">
         <f t="shared" si="2"/>
         <v>20111</v>

--- a/tools/Excel2Lua/sheet/Error.xlsx
+++ b/tools/Excel2Lua/sheet/Error.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>有多个玩家信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token无效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +701,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,7 +955,9 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C26">
         <f t="shared" si="2"/>
         <v>20112</v>

--- a/tools/Excel2Lua/sheet/Error.xlsx
+++ b/tools/Excel2Lua/sheet/Error.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -160,6 +160,152 @@
   </si>
   <si>
     <t>token无效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业未开放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称过短</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称过长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称含有非法字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+  </si>
+  <si>
+    <t>找不到对应目标</t>
+  </si>
+  <si>
+    <t>目标已存在</t>
+  </si>
+  <si>
+    <t>服务器内部错误</t>
+  </si>
+  <si>
+    <t>token错误</t>
+  </si>
+  <si>
+    <t>职业不存在</t>
+  </si>
+  <si>
+    <t>该目标已过期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存不足</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称字符串过短</t>
+  </si>
+  <si>
+    <t>昵称字符串过长</t>
+  </si>
+  <si>
+    <t>昵称字符串含有非法字符</t>
+  </si>
+  <si>
+    <t>昵称重复</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>角色不存在</t>
+  </si>
+  <si>
+    <t>网关连接失败</t>
+  </si>
+  <si>
+    <t>找不到战斗ID</t>
+  </si>
+  <si>
+    <t>服务端战斗初始化失败</t>
+  </si>
+  <si>
+    <t>服务端战斗找不到对应玩家</t>
+  </si>
+  <si>
+    <t>此玩家已经在战斗中</t>
+  </si>
+  <si>
+    <t>玩家数量过多</t>
+  </si>
+  <si>
+    <t>玩家ID有重复的</t>
+  </si>
+  <si>
+    <t>玩家被踢出游戏</t>
+  </si>
+  <si>
+    <t>客户端帧数有问题</t>
+  </si>
+  <si>
+    <t>服务端操作记录无法追溯到对应帧</t>
+  </si>
+  <si>
+    <t>战斗服繁忙</t>
+  </si>
+  <si>
+    <t>游戏服没有可分配的战斗服</t>
+  </si>
+  <si>
+    <t>战斗服不存在</t>
+  </si>
+  <si>
+    <t>玩家登录游戏服时,服务器查询到该账号有多个玩家信息</t>
+  </si>
+  <si>
+    <t>玩家断线重连,服务器让客户端进入登录界面重新登录</t>
+  </si>
+  <si>
+    <t>找不到对应玩家数据</t>
+  </si>
+  <si>
+    <t>退出游戏,此账号在其他地方被人登录</t>
+  </si>
+  <si>
+    <t>退出游戏,客户端与服务器连接中断</t>
+  </si>
+  <si>
+    <t>退出游戏,客户端主动请求退出游戏</t>
+  </si>
+  <si>
+    <t>pvp匹配中</t>
+  </si>
+  <si>
+    <t>pvp匹配超时</t>
+  </si>
+  <si>
+    <t>pvp匹配成功</t>
+  </si>
+  <si>
+    <t>pvp匹配成功后没有战斗服分配</t>
+  </si>
+  <si>
+    <t>pvp匹配成功后对手取消战斗</t>
+  </si>
+  <si>
+    <t>服务器过载</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -968,7 +1114,9 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C27">
         <f t="shared" si="2"/>
         <v>20113</v>
@@ -979,7 +1127,9 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C28">
         <f t="shared" si="2"/>
         <v>20114</v>
@@ -990,7 +1140,9 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C29">
         <f t="shared" si="2"/>
         <v>20115</v>
@@ -1001,7 +1153,9 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C30">
         <f t="shared" si="2"/>
         <v>20116</v>
@@ -1012,7 +1166,9 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C31">
         <f t="shared" si="2"/>
         <v>20117</v>
@@ -1038,6 +1194,498 @@
       <c r="C33">
         <f t="shared" si="2"/>
         <v>20119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>100001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f>A34</f>
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C74" si="3">A35</f>
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>100003</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>100004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>100005</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>100006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>100007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>100100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>100101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>100102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>100200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>100201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>100202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>100202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>100203</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>100203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>200000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>200001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>200002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>200002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>200100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>210000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>210001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>210001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>210002</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>210002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>210003</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>210003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>210004</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>210004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>210005</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>210005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>210006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>210006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>210007</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>210007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>210008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>210008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>210100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>210100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>210101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>210101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>210102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>210102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>220001</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>220002</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>220002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>220003</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>220003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>220010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>220010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>220011</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>220011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>220012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>220012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>220030</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>220030</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>220031</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>220031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>220032</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>220032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>220033</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>220033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>220034</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>220034</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Excel2Lua/sheet/Error.xlsx
+++ b/tools/Excel2Lua/sheet/Error.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>服务器过载</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗服连接失败</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +851,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,7 +1183,9 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="C32">
         <f t="shared" si="2"/>
         <v>20118</v>
